--- a/src/data/permission-rules-filtered/entertainment_permission_filtered.xlsx
+++ b/src/data/permission-rules-filtered/entertainment_permission_filtered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>antecedents</t>
   </si>
@@ -37,19 +37,58 @@
     <t>conviction</t>
   </si>
   <si>
+    <t>antecedent_len</t>
+  </si>
+  <si>
+    <t>consequent_len</t>
+  </si>
+  <si>
+    <t>combo_len</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'INTERNET'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'ACCESS_NETWORK_STATE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'ACCESS_NETWORK_STATE', 'WAKE_LOCK'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'ACCESS_NETWORK_STATE', 'INTERNET'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'INTERNET'})</t>
+  </si>
+  <si>
+    <t>frozenset({'WAKE_LOCK'})</t>
+  </si>
+  <si>
     <t>frozenset({'WAKE_LOCK', 'INTERNET'})</t>
   </si>
   <si>
-    <t>frozenset({'WAKE_LOCK'})</t>
-  </si>
-  <si>
-    <t>frozenset({'INTERNET', 'WRITE_EXTERNAL_STORAGE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'BIND_GET_INSTALL_REFERRER_SERVICE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'INTERNET', 'BIND_GET_INSTALL_REFERRER_SERVICE'})</t>
+    <t>frozenset({'ACCESS_NETWORK_STATE', 'WAKE_LOCK'})</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE', 'WAKE_LOCK', 'INTERNET'})</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE', 'INTERNET'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'WAKE_LOCK', 'INTERNET'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'WAKE_LOCK'})</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -407,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,74 +474,814 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>0.7558139534883721</v>
-      </c>
-      <c r="D2">
-        <v>0.7926829268292683</v>
-      </c>
-      <c r="E2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>1.048780487804878</v>
       </c>
-      <c r="F2">
-        <v>0.03515413737155215</v>
-      </c>
-      <c r="G2">
-        <v>1.177838577291382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F5">
+        <v>0.04164413196322336</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1.048780487804878</v>
+      </c>
+      <c r="F7">
+        <v>0.04164413196322336</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1.048780487804878</v>
+      </c>
+      <c r="F8">
+        <v>0.04164413196322336</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1.048780487804878</v>
+      </c>
+      <c r="F9">
+        <v>0.04164413196322336</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>0.7558139534883721</v>
-      </c>
-      <c r="D3">
-        <v>0.7926829268292683</v>
-      </c>
-      <c r="E3">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0.9534883720930232</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.9534883720930232</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.9534883720930232</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D15">
+        <v>0.9390243902439024</v>
+      </c>
+      <c r="E15">
         <v>1.048780487804878</v>
       </c>
-      <c r="F3">
-        <v>0.03515413737155215</v>
-      </c>
-      <c r="G3">
-        <v>1.177838577291382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>0.6976744186046512</v>
-      </c>
-      <c r="D4">
-        <v>0.9677419354838712</v>
-      </c>
-      <c r="E4">
-        <v>1.014948859166011</v>
-      </c>
-      <c r="F4">
-        <v>0.0102758247701461</v>
-      </c>
-      <c r="G4">
-        <v>1.441860465116284</v>
+      <c r="F15">
+        <v>0.04164413196322336</v>
+      </c>
+      <c r="G15">
+        <v>1.716279069767443</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D16">
+        <v>0.9390243902439024</v>
+      </c>
+      <c r="E16">
+        <v>1.048780487804878</v>
+      </c>
+      <c r="F16">
+        <v>0.04164413196322336</v>
+      </c>
+      <c r="G16">
+        <v>1.716279069767443</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D17">
+        <v>0.9390243902439024</v>
+      </c>
+      <c r="E17">
+        <v>1.048780487804878</v>
+      </c>
+      <c r="F17">
+        <v>0.04164413196322336</v>
+      </c>
+      <c r="G17">
+        <v>1.716279069767443</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D18">
+        <v>0.9390243902439024</v>
+      </c>
+      <c r="E18">
+        <v>1.048780487804878</v>
+      </c>
+      <c r="F18">
+        <v>0.04164413196322336</v>
+      </c>
+      <c r="G18">
+        <v>1.716279069767443</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D19">
+        <v>0.9390243902439024</v>
+      </c>
+      <c r="E19">
+        <v>1.048780487804878</v>
+      </c>
+      <c r="F19">
+        <v>0.04164413196322336</v>
+      </c>
+      <c r="G19">
+        <v>1.716279069767443</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>0.9534883720930232</v>
+      </c>
+      <c r="D20">
+        <v>0.9534883720930232</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D21">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D22">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D23">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>0.9534883720930232</v>
+      </c>
+      <c r="D24">
+        <v>0.9534883720930232</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D25">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="D26">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
